--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/3_Afyonkarahisar_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/3_Afyonkarahisar_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE701D3-4D42-49C4-9F59-AD10BEB3F9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40416FCC-C32F-48EA-8563-91CBB0535F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{19860E04-0569-482B-A102-F7BAB5F7023D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{48425793-5840-4562-A9EC-35EAE8E78D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -950,15 +950,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C718B112-70A4-4694-B162-6D06BEFFABF8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BCF38631-869E-4CE6-99F6-3DE885BAEBA3}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{14085DA3-9B7E-4112-9175-97A1D815CEB7}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{14A68454-7412-4C36-B531-A1A6DDD5CBD9}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{D00AFCC0-6BBF-498E-8638-046ACB8A84A5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{6528C58E-B4A9-461B-9B91-742FE7446A3C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{215DD760-6F2C-4805-8B9C-B58C1E71B368}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{78E0D9FA-DF7E-4E71-B214-CB2860C03159}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{66EED42B-F180-45F3-8A69-B6127BB1E235}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{83A1BB78-2303-41BC-B1EE-3D9CA98E7CDB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{873E1752-D7D0-461A-A9A3-5AFB907E7FA6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0ACB0BA2-F1B6-41FD-AF90-12A7102852BA}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{AD94C39F-0F7C-4491-8BE3-531A9E736D8D}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{C500745F-DA53-49C8-915A-54E23F82B9FE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{942A4CF0-DC44-4007-BCE7-4FB628DBE80B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{9378A3C7-BBC2-4133-9782-F909D7DA7163}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{E46B4CD8-3E32-48ED-AFFE-3884EDAD64B0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{775C8754-F27A-4418-882F-4B737F5D1B6D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7AD533-3542-4990-8DEA-CAFF57B97D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22678C20-C6FA-4ECE-B03E-69245CF034CB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2631,18 +2631,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B9FCB33-CB95-4D88-A806-251887A56342}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FD721C8-316E-4619-B208-23FFF8589D99}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3000E8BE-C599-4D66-B67A-396303C729E8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41FE74F8-24BD-4EC0-AA4C-EA363139DB91}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE208B8C-E998-4440-B674-CBF0E506DB38}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9185D92A-5E8E-47D8-BCFF-8801A7E96F3B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEFD9E63-04D0-4035-BDF2-6C22917D3857}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9047F7CE-718C-4B13-9559-548000C1B200}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C57686F5-AE83-4852-BB2E-EDD7CC0792FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7D913C0-7447-4FFD-AEFB-E2644E8F42AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C446EA91-A834-430C-9FE6-ED85AF6D5E7B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43716208-5D47-49E1-902F-0013696889ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87F7742B-024B-43DC-81D0-BB7A6D1DD228}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{264ADA79-503B-4FFF-9227-53F7BE80FCD4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D8D67692-C267-4789-A762-D2FC755F3124}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9A60C8C-C76D-4CF3-B375-9934BB71231F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B634460-48C6-4203-BD55-57626333C210}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5102C18-C050-4AF9-A086-9F16C97DB2A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CAFD28E-43D3-4621-880B-1CA91E717230}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5E4CB68-10AB-40E8-9623-ADDCC4FA2EF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53F6B4F3-747F-4A34-A80B-6D53A40A4CA1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC23DE6F-6F71-45BD-8CA0-92C75D56AA0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2C41D70-AB8B-4A69-9A02-F1B81BFAD5B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8768A892-1895-45E8-A5E8-8A6A0D0C6288}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E5714A-03FF-4DA2-AE61-7840F9D8F4BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EFF78D-38B3-4A63-ABE7-9E4D7F3713AC}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3933,18 +3933,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45BBB999-56B6-4D8C-91BB-9E2CC9D66E23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3791A11-A151-499A-8784-323DC8BB85B3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5C5618F-FAF8-4646-8C68-E7F2BEB5E43D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B2E8172-5947-454C-B223-07F552552283}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B6D13C6-4DE1-4D76-8E5C-FF167C2BF6BB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD28D461-4F00-49E7-B086-0BDA69789D32}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D69AE45D-7FB0-430E-A2CD-79E3F67FE04B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0146A45-C2A6-449E-BE85-D2068BDE57D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B987815-F719-4E08-B40A-FCC227FA082C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{075CC641-774D-4615-91D2-951EA4F59A98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0B9E8EB-8656-46BC-ACC7-7D4678C6470C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{638F3EC9-9142-4993-BA85-9AD0A776A08A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80936AB8-A8BA-4C4D-B4F8-03888B8F40C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3FB21D3-BD60-4FA3-8249-9208C3D9D36D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{489504A5-5452-45A1-AD7D-5EFB9A59FB81}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4256A1B5-4B45-4E4B-A890-A26D8559BED1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71532449-4C68-4C1E-8FAF-FA2C748D3FF9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F496D654-0763-446F-A1AA-62C5A79A4009}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5519012C-5E04-4E23-9400-2D9272D70866}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DDC1432-02BC-4490-8A55-6B4C3AE430D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D490799A-2F92-4160-AE1C-9E706135BB00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E864322-1D89-4AEB-8FD8-6AD9FB2EB267}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F7BE705-9325-4A44-8390-62D9E59DBF04}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB892DD7-BEE1-4317-BB56-0F013B11704E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3957,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F1D80-2D76-4BFA-A4F6-4B120E6DEEA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F86CC05-F9DA-4C1A-92D5-6B270A588D32}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5231,18 +5231,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD35C143-8D1E-49AC-B688-5D9B9A385012}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CDCD153-9B4B-4DD4-9E36-9DF66F3E6F4D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E5BF1E9-4AAC-4D66-88B6-BF8161F34351}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B547C1B-708C-4422-BBF0-E7F57168846C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4863DA63-BAA4-47DF-B84C-BFEC97CA5933}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5BD99CD-7EB6-40A5-A825-03D08DA73A15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2605DBE1-9EBD-42A6-9BCF-6F52ECBFEC74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C22175A-FBC2-4088-A41A-4CDC6B4D5A66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D113D963-A409-4692-A109-4994CC52D07C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C0A4338-504D-45C2-A595-9BE313FC6DE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5542729F-FB70-4ADB-9560-CE2EA7E21224}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C65AD31A-9076-4AD4-96D8-ED35E9C56BEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CC2A248-661E-43C0-9C05-F73987FBB293}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F582A19-72DD-4F0B-874C-2BB70982AE8D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32201131-016C-4C1C-8E0C-9CF2B276A9C2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC539F30-1D09-4119-AD64-37E8791AD0F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FA9ED59-7654-479E-9FC5-9F46F6763959}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62E9687B-AB82-4B0F-B617-1C4C49BFFA88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CAD7626-40C2-4899-8E80-2D58956DC737}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E99EB9B8-01EA-4052-94E6-064E4E6BAC44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DD450EC-7E26-46C0-84CA-86E14C637B30}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBB0C485-9B37-48D0-A98C-B7BDFA7A60B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9527681B-AAAA-44C5-B2C7-55AA927E4C80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B282F57-E93E-4646-85FC-E4FA8E2D1091}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5255,7 +5255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDDAAD6-3024-41FE-B0DC-0A2DA1CE53D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31690B82-1589-48E3-B1B1-8A0428F21406}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6521,18 +6521,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB39F2A0-0589-4F01-AFB3-CB1F9AB28D61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17DA63FA-57DC-42E2-8F14-64103A76511D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF68BE06-429F-4354-BCEB-557077D06172}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B509B14D-CC78-485B-9FB4-8A4966278B60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB56B0CB-A3BE-451D-A953-7A0D68098316}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E63DC3E-3223-409F-B917-B3E05053779C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EAB7378-CE2E-4AAC-A8C1-80251B704491}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A1DD1DE-940C-43FE-BAC2-A6C122B94237}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9461BBCD-AF1E-4504-92B5-D8F0A23F8C4C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFE3AE91-B17D-4A04-93C9-DBDE5A970809}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89795278-7F23-4ECA-884B-663C9B04633A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BD5BA81-30DA-421C-A828-14150904D967}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C22CCDAE-CA7C-4F5C-9CED-75F7F723E416}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7670CACA-B933-46C1-B804-209A863E576E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6AC0277-60BE-46BA-9EAF-20D93FF42A2E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1DA1B11C-0BBA-44AC-9559-E836753E5AB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7C53A2C-F37C-4A2A-91D6-5A3FF7572A69}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87CD1395-5749-4FC1-89F3-D64D492C65D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DFA7876-F91D-4580-9F45-A0A245D6CE2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62801310-41C3-4356-9598-5688053A312A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F111A3A3-3D6B-4032-B052-2036F6AACF6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA0694C5-2187-4C78-8577-7D60B91D173E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FD3AEAF-588C-49A2-A063-79BEDD4F8F31}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29C96711-0904-4D66-A1D5-5909894268CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6545,7 +6545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66192F6-EC4C-495D-8BE2-835D623B7FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A15E8FD-73D7-4B2B-8224-C2E8EE148F9B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7846,18 +7846,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34ACEE1F-BCA1-4646-A156-AA1C2CC1E79F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EB59886-1957-41B8-BFE1-34C6332A84A9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5127D9D-92C1-40B8-BB37-3226C87D61EF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A3E37407-0FA2-477D-ABC9-2DD099E74D39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3FCADD0-6B53-4A40-8547-EB6E01D0F4B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4392F3FF-AC55-44F3-A74F-914C359A90E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09B5C32A-A0A0-4E9D-B65E-DD69E66CEAE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D091D07F-CB32-4B98-89E2-85ADAF4BCEF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03980394-06A7-4F55-8113-F1FCFAA13215}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9A49E24-6355-4762-AA22-0829D17C19CB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E9281D5-8851-4DEC-A2B9-87AAEA40E350}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0701AA9F-FF33-44BB-ABCC-AF811AA70363}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2F1C8F5-2FDB-4E1F-BF17-25447438744C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77EFBFCF-BE04-4312-A84D-F7790C45BFF5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5996E375-487E-4E5B-8C7F-FEE4C8AD2549}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E03C3D14-42A8-4EAF-B2A4-8526C826C61B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E15387B-FECB-467F-8EE4-7B051E681100}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CB8F9540-DCE4-4F68-B180-38A311D476F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8BF2513-39B4-4012-9F55-D60D64A5B424}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A97100BB-FA6D-41F1-9F70-5A21DA27D94C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E10C627-3E60-4376-BC3B-291698D8CA10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43E42D2F-0EDE-4A43-9C3D-C07BF26204C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E00DF49F-1098-407B-88B8-0A3155F441F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A3DE9E3-3BDD-4342-A33E-1A5364DA1750}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7870,7 +7870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234BF7F-CF09-44DB-8A5F-83D010F71DC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED2ED0A-0B0F-4429-837C-391AFDF355CF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9173,18 +9173,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95358B1B-3BBF-49A0-972C-66E4C1DB901A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC15EE54-C0C4-46E7-AAD3-4F2E797179D0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0554B72A-0D71-48FF-9762-2AB7345B20A9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF4D85E9-CCDF-4695-8ADF-B5AEECFFF1C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A67111B-7DA0-4391-BD76-39101D080B02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47F7477B-2473-4822-BF1D-AA9B0393A75A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE2FB9CB-2982-4927-B159-B2D5D396FF67}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A4EF8A7-1EB0-4FCF-B7F9-5F14EDB178DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56E088B5-3712-48D1-A579-FA3BF1EC6377}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25053489-C78A-48E6-8F27-B51D133D8EB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{645A234E-C4DF-4D26-9BD8-0FFD6CBC0483}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6BFD98A-0EFF-40C1-84B9-C0FBF94BBAB5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C35A1CB0-C282-4491-A02E-30A030086AE0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F77D384C-1EB6-486E-ACB2-19F85E3FBF5B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02275000-420F-4CB1-A954-A6B590E04C7A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{331143ED-AB1C-4072-AA30-696B9365AFC9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A54FD72B-EAD6-47DD-A0EF-7920F7BACCFF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C6DC81C-BB0F-43AA-A606-217EDDD45962}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB54D570-FB85-417B-AFD2-A9746CB27021}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BA57B59-9271-4CC3-9EBC-30A8DF5B0439}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89DBC389-31DE-493B-AA0E-C867E9A32CB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60DCBBFE-4C7C-4B27-B673-F1255D775958}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEE4545F-0EF7-4918-AE40-C26C4C451750}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAC89266-4654-49A3-9B43-8D26ABEA7A95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9197,7 +9197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D747EF-A70B-4FDF-81D5-90AA6289E496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F2FC11-807A-4937-B9C6-4B23F8C7DC75}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10500,18 +10500,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F58025C2-4E5E-4E9D-9FD6-C79303AA5CAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F17389A-8232-49A6-AD75-2E078776CDE2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7DF36D7E-EC92-4621-898C-68CFBC3921C4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9314593B-289B-4B25-AA70-6F065DA4856E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{662ACF51-DD8D-4B7B-AEEB-2C30C14932F0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99659714-ADE3-43E5-AACB-CFB0C0F9039C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3B81191-D08C-4A32-9E55-DE97BC57E3DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{979A0EB2-1A61-4ED4-B759-DBBA75DF54BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F52DB6B4-4B23-4C4D-B5CA-ABF4B329791C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{591E9941-CB05-4473-85E9-5BD6B02EB22E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4809E8E6-6D56-44BF-84DD-7C76A8885B45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52109E19-EE12-4473-88E5-D092997642E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D273D45-BC5E-4F52-A302-1A054770371C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{448EC086-B6C0-4E5D-88F4-1C31A7482529}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B23C16F-B1B5-4A1C-9643-16B29E4E73F0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7E3D7DDA-2810-4B64-AF26-4D45F77A0C33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82BEDB5A-27F5-4092-9175-F4AEBEA16C31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D2757B6-465E-4791-877A-67B68EBBB837}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED00F027-2CA0-40FD-9366-93B3E834CCF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27D49B93-6DB1-4CC5-98BD-06B790FA054F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C140702-DD9E-46C5-A21D-C868C7B13BF4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C32051B4-1034-43D7-861B-688F8C280396}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A0C7DAF-9BB2-4CF2-B28B-58594467F2A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25588047-9D9C-474B-B987-DC7E9505D975}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10524,7 +10524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF72214-9393-4506-8478-4120C8A5B6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359310F-51D5-4200-8F78-D5016F715BF9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11817,18 +11817,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FAAFFF1-5266-4102-8311-0FE3ECAE8941}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97A3BE39-65C4-4A1D-8A4E-9FA2811C3B34}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C5632A87-5152-4847-BFD2-5670DB7B35C1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{824C9FBE-9545-49FF-9712-2DAE92B873FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{299F6008-8777-455E-B877-5FD7D6AB8115}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A391273F-0834-41DA-BF8D-62E217880EBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E40FE7A-9426-40E3-BC91-2B50AA242698}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DB0122F-01A6-48EA-8118-EC390C5B2191}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F10301C-1DF2-41E0-84E4-E90A65F7993F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C23A95F-4B6B-41D9-8E27-645FA34A9986}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DD2D30D-E1BF-4B88-A031-D90ED0406387}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA79D51B-B687-405D-9228-AD873145E2FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EE2E9DC-53D4-446B-9CE4-E85D2FC62CB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CC9AB52-A548-462F-8E2F-F6CE3902783F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{326CDDD3-C375-4863-812B-A86F75C0B5F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{51854F7C-B373-4172-8032-76F2253D77D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC02D434-87DC-4C91-8C77-0DA2828B0742}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92DED813-C459-4967-9DE6-318D45113ED5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91A84BAF-6E57-4586-A878-E59CBB0D87BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F1DE22B-4B9E-4F95-ABFC-EA2F56333757}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE9858A3-553B-4F88-A082-99BEB88DC689}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1198FFF-E719-4F95-8D09-E08745DA7B5E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30DA36CF-2516-4045-B047-89519E95BD69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{227096F7-16FA-4049-B39D-B6DEAEE370BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11841,7 +11841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF4FFE-ACB0-4459-AD1B-1A2AD47C9FAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A22CA-9F65-4B26-9D11-666F1699F6FF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13134,18 +13134,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{841E5F8A-046F-4C4E-BCB1-AFDBD6CCABD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3FD454FA-BC70-484A-97DB-B4F9CC9E7AD9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D89A1C9C-E5E0-4BA6-A598-E38639C001EF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD538694-E374-470C-80C6-3EC79731CA38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0896266-BB00-4DB6-BC9D-2B6B45B995A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03986C62-8551-42AB-A7CE-17D3DC6A2A9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A56A303-BD6C-4CB5-891A-3A76ED3C71C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADC7F7DF-6745-4747-A54E-D06E1E5AD42B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FD90C4D-236C-4034-A11F-F52EB3A1182D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA42DEF7-551B-40EB-91C7-64E960F76E2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72E12170-1380-4E9C-BE39-8AFFD3564313}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66491073-ACF6-4E01-9A06-061B97E38A14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1051F171-A654-48E2-9DFA-A357AEC1FF22}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF07E0F6-574F-4CB9-A561-079BF8BD51B5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D54D2F5A-C5C7-4DD5-881A-DB6DEF5B8C9C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{175E009A-40F8-4DD9-8CEB-6955905FB6B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A120EF9C-B358-47BB-8676-EE48166CCE95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1003707F-2367-4FC6-8A35-A2664F447931}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE5C2B5C-2359-4364-99C5-A16C10992A4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCF4BE82-17BB-47BC-8F81-DA90A93F2793}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74910C8D-A3B6-4918-A84D-D8BEC712861E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B6674C2-D2CC-4AF1-B099-00C2C01ADE0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7FA7983-61B5-44EE-9865-A2B2F1A66F2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B6C6B6F-AEE5-4F12-A761-A0382393F40E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13158,7 +13158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11D4EB0-B4D4-43EB-95EF-7ACD9BC31EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6EA4EC-519D-4E90-A28C-F5EC7A5290B2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14451,18 +14451,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE665A7E-D66C-4E44-B21B-E8F10B999E15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0500B97-D936-41CA-B567-3D732718F500}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A4E8FF2-86FE-463A-B51B-6F636183AB66}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3B4C42F-FB98-4AE3-8FDE-DAB633E52D45}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{992961F1-EBD1-460D-A557-9D8094DBACF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8FEBE42-AB08-44CC-8B1C-691D9989063C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE753DF3-C3A7-46C8-85FC-E3B53D76EAA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15E52F28-9E36-4ADA-BF4C-6B96A043DD73}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFF1C467-C78E-471F-A11B-A8B6391C74F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0106B02-046F-4EAE-90C3-601DC21325FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{205AA588-F935-4FED-8D03-04304D01D60E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C071FD38-4B3B-4400-B477-69B2FBAD0FF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E38E0514-E16F-46ED-86C9-259AB5994055}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75CAF034-60FC-4791-9D7A-37DC975CE3EE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43F8EE94-E9C7-4BFE-9E69-B7CEA078A20C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D69364FC-38E5-4F76-9F19-18158AE769A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53B9F1A8-F9B6-49E2-9D44-EC8E742BC14B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4114BAD0-311C-4344-B716-B9CC38AFD4BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C35D14E-3138-42BB-9AAA-CDF1F8079EFE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C7D077A-8EB1-4309-BD94-5436E7D5D39C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C34A7383-93ED-4308-9307-018B4961BD21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{653BCC94-43A3-427F-A33F-CD40BC6B89D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4431322A-16CA-4351-8DC7-998093233C42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C07D09C-9F23-4640-9DCD-45C2B8AD281A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14475,7 +14475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55EB98C-7F3E-428F-9064-5E4004F62DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67595EAB-89CB-4872-88CE-BB59985AD593}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15768,18 +15768,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6489F9BA-E106-427C-9FBB-014DBA217427}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F553937-EC98-4DE4-AD90-F6B7B9AE8B79}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A7CD0EF-3FFF-4B5B-B36E-2AB15E27F133}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D083955-38C9-437F-9951-BFB16C74ABE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{477D0D1E-CB57-4811-9694-99FB722BC3B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA6010F8-6515-4771-8775-63310F65259C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85E31422-6551-4BEE-9A77-9B74A64592DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{617C84F9-EBCB-4B16-940A-01E244525E55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D7E0D57-92F2-450E-8AAE-52582EBA7779}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4783158-850A-467D-82C3-4F9EDD3BA9AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DFEAC7E-B692-49A3-8F19-82735B36DDD4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4216A861-9FDC-4C5C-AB6D-E5FDD52B7DF0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E003056-4273-4C31-9F72-95E4C69C0A79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A6FFD86-D465-41BE-A1BD-96D42E8CDCEF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EB2F81ED-9097-4D0E-96B0-1E62BF3430E4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1EB0B016-FADE-45C2-98BA-207F9CDF68D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B9B039D-D7C2-44A4-A589-B887ED7EC17C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1707F95-6BAF-430A-BD73-CC98773495DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEA5637A-4332-4885-BE5D-1956EE82E951}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF2740EE-15B0-4CC4-9707-C54768B64B91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5A01C7D-0270-4552-B648-8B50213A0549}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D15637EC-63FF-4D14-9FC1-3E8DF9BBC60C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10A50275-E5CE-4846-B20D-5CD25632C9EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28387146-CF3D-4724-9769-2D520FB43650}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15792,7 +15792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B16A6BE-40E2-41FA-88E5-6B19597DEA2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0835D6-19A3-4F7F-8A0A-919875E17B29}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17087,18 +17087,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AE0A79E-5DBE-4857-9ECA-26A23BDA89EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4D0FD49-A6A2-4888-A7BC-DA867DFCA661}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65DDF698-1C60-4AAA-BE9A-5253EE7C8557}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{01F103C6-6EC8-4AD3-B7E7-0F303A6C83CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2718B26-C5B0-4A24-A080-601483689F36}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{677116B8-0539-43B0-BC9E-1D93DA4369D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F103E6E9-9923-4E50-A27D-280E8821FDBD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF26EEB9-5DF8-4329-B8E4-BA1D969FF9B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC99CB90-2212-4A40-A1EB-37C108BF81CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7BDB3E1D-3392-4771-A11A-31A92C95296E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13D8C83A-C9D1-4C62-AD0C-7A0BC3D6E140}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55BE6B88-A098-4903-9A24-3D1400AF0926}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B948970D-3102-494F-9DD6-EEEE85930D9C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2881CE1-9921-4D3F-975C-D261089A6968}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3A25D8A0-5048-4B09-A592-3EE583F11EED}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3B852C30-1195-42A5-997A-FB1EC4A7F509}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5732B333-8A07-4356-849F-8F8399D360E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD8555B6-5067-4375-AFED-38A5ED5F7E4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76A23A2A-154B-409E-8628-D242EFE28701}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{695A1580-40B8-4332-A9D8-CA14CD4A7A6B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D1E5FB7-D5BD-4804-9CA3-C2D08DF0C055}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{402559A2-D9C6-4807-9AA6-9A5959EAF504}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B41AD4D9-339E-4C22-B500-1D9BA629C09C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74EC6978-E303-40F9-AE8F-BB09BF2D3FAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
